--- a/DOM_Banner/output/dept_banner/Cameron Thompson_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Cameron Thompson_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Queensland University of Technology (QUT), Faculty of Health, School of Exercise and Nutrition Sciences, Kelvin Grove, Australia; Queensland University of Technology (QUT), Faculty of Health, School of Exercise and Nutrition Sciences, Kelvin Grove, Australia; Centre for Diet and Activity Research (CEDAR), MRC Epidemiology Unit, University of Cambridge School of Clinical Medicine, Cambridge, UK; Queensland University of Technology (QUT), Faculty of Health, School of Exercise and Nutrition Sciences, Kelvin Grove, Australia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4294024769</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Development, validation and item reduction of a food literacy questionnaire (IFLQ-19) with Australian adults</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>International Journal of Behavioral Nutrition and Physical Activity</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>BioMed Central</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12966-022-01351-8</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36050778</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1186/s12966-022-01351-8</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Division of Emergency Medicine, Department of Medicine, University of Toronto, Toronto, ON, Canada; Division of Emergency Medicine, Department of Medicine, University of Toronto, Toronto, ON, Canada; Schwartz/Reisman Emergency Medicine Institute, Toronto, ON, Canada; Department of Family and Community Medicine, University of Toronto, Toronto, ON, Canada; Sinai Health, Toronto, ON, Canada</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4298327012</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Intra-articular lidocaine versus intravenous sedation for closed reduction of acute anterior shoulder dislocation in the emergency department: a systematic review and meta-analysis</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Canadian Journal of Emergency Medicine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-022-00368-z</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36181665</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-022-00368-z</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Emergency Medicine, Department of Medicine, University of Toronto, Toronto, Ontario, Canada; ICES, Toronto, Ontario, Canada; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Ontario, Canada; Department of Emergency Services, Sunnybrook Health Sciences Centre, Toronto, Ontario, Canada; Division of Emergency Medicine, Department of Medicine, University of Toronto, Toronto, Ontario, Canada; ICES, Toronto, Ontario, Canada; Division of Biostatistics, Dalla Lana School of Public Health, University of Toronto, Toronto, Ontario, Canada; ICES, Toronto, Ontario, Canada; ICES, Toronto, Ontario, Canada; Division of Infection, Immunity and Respiratory Medicine, University of Manchester, Manchester, UK; Salford Royal NHS Foundation Trust, Salford, UK; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Ontario, Canada; Division of Orthopedic Surgery, Sinai Health, Toronto, Ontario, Canada; Department of Family and Community Medicine, University of Toronto, Toronto, Ontario, Canada; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Ontario, Canada; Department of Emergency Medicine, Queens University, Kingston, Ontario, Canada; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Ontario, Canada; Department of Medicine, McMaster University, Hamilton, Ontario, Canada</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3199295307</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Venous Thromboembolism in Patients Discharged From the Emergency Department With Ankle Fractures: A Population-Based Cohort Study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Annals of Emergency Medicine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annemergmed.2021.06.017</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34535301</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.annemergmed.2021.06.017</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, ON, Canada; Department of Emergency Medicine, Department of Medicine, St. Joseph’s Healthcare Hamilton, McMaster University, Hamilton, ON, Canada; Department of Emergency Services, Department of Medicine, Sunnybrook Health Sciences Centre, University of Toronto, Toronto, Canada; North York General Hospital, Institute of Health Policy, Management and Evaluation, University of Toronto, Toronto, Canada; Ontario Health, Toronto, Canada; Department of Health Research Methods, Evidence and Impact, Center for Health Economics and Policy Analysis, McMaster University, Hamilton, Canada; SE Health, Toronto, Canada; Departments of Paediatrics and Emergency Medicine, CHEO, University of Ottawa, Ottawa, Canada; Departments of Paediatrics and Emergency Medicine, London Health Sciences Centre, Western University, London, Canada; Department of Emergency Medicine, Lakeridge Health, Oshawa, Canada; Department of Emergency Medicine, Health Sciences North, Sudbury, Canada; Department of Emergency Medicine, Humber River Hospital, Toronto, Canada; William Osler Health System, Brampton, Canada; Thunder Bay Regional Health Sciences Centre, Thunder Bay, Canada; Department of Paediatrics, The Hospital for Sick Children, University of Toronto, Toronto, Canada; Department of Paediatrics, The Hospital for Sick Children, University of Toronto, Toronto, Canada; Department of Emergency Medicine, St. Michael’s Hospital, Unity Health, University of Toronto, Toronto, Canada; Division of Emergency Medicine, Hamilton Health Sciences, McMaster University, Hamilton, Canada; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Canada; Division of Emergency Medicine, Department of Family and Community Medicine, Temerty Faculty of Medicine, Institute of Health Policy, Management and Evaluation, University of Toronto, Toronto, ON, Canada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4309346993</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Demographic characteristics, outcomes and experience of patients using virtual urgent care services from 14 emergency department led sites in Ontario</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-11-16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Canadian Journal of Emergency Medicine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-022-00407-9</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36380242</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-022-00407-9</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Toronto, Toronto, ON, Canada.; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, ON, Canada.; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Canada; Department of Family and Community Medicine, University of Toronto, Toronto, Canada; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Canada; Department of Family and Community Medicine, University of Toronto, Toronto, Canada; Schwartz/Reisman Emergency Medicine Institute, Sinai Health, Toronto, Canada</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4297265713</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Antibiotic prescribing and outcomes for patients with uncomplicated purulent skin and soft tissue infections in the emergency department</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-09-27</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Canadian Journal of Emergency Medicine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Springer Nature</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-022-00366-1</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36166156</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s43678-022-00366-1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; ; ; </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283010561</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Sa1091: MIR130B AS A NON-INVASIVE BIOMARKER FOR GASTRIC METAPLASIA, GASTRIC CANCER, AND OTHER GASTROINTESTINAL MALIGNANCIES.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-01</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Gastroenterology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/s0016-5085(22)60718-2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Psychiatry, University of California, San Diego, CA 92037, USA; Department of Psychiatry, University of California, San Diego, CA 92037, USA; Department of Psychiatry, University of California, San Diego, CA 92037, USA; Department of Psychiatry, University of California, San Diego, CA 92037, USA; Department of Psychiatry, University of California, San Diego, CA 92037, USA; Department of Psychiatry, University of California, San Diego, CA 92037, USA; Department of Psychiatry, University of California, San Diego, CA 92037, USA; Department of Psychiatry, University of California, San Diego, CA 92037, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283830108</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Young Adult E-Cigarette and Combustible Tobacco Users Attitudes, Substance Use Behaviors, Mental Health, and Neurocognitive Performance</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-07-06</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Brain Sciences</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Multidisciplinary Digital Publishing Institute</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/brainsci12070889</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35884696</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.3390/brainsci12070889</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>School of Exercise and Nutrition Sciences, Deakin University, Geelong 3217, Australia; School of Regulation and Global Governance, Australian National University, Canberra, ACT, Australia; School of Regulation and Global Governance, Australian National University, Canberra, ACT, Australia; School of Medical, Indigenous and Health Sciences, Faculty of Science, Medicine and Health, University of Wollongong, Wollongong, NSW, Australia; Department of Nutrition, Dietetics &amp; Food, Monash University, Notting Hill, VIC, Australia; Centre for Health Policy, Melbourne School of Population and Global Health, University of Melbourne, Carlton, Melbourne, VIC, Australia; Global Obesity Centre, Institute for Health Transformation, Faculty of Health, Deakin University, Geelong, VIC, Australia; School of Exercise and Nutrition Sciences, Deakin University, Geelong, VIC3220, Australia; Charles Sturt University, Wagga Wagga, NSW, Australia; Jumbunna Institute for Indigenous Education, University of Technology, Sydney, NSW, Australia; Global Obesity Centre, Institute for Health Transformation, Faculty of Health, Deakin University, Geelong, VIC, Australia; Queensland University of Technology (QUT), Faculty of Health, School of Exercise and Nutrition Sciences, Kelvin Grove, QLD, Australia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4292454277</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Interdisciplinary insights on the future of food systems research: perspectives from the next generation of research leaders</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-08-09</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Public Health Nutrition</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Cambridge University Press</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/s1368980022001641</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35942634</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1017/s1368980022001641</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Queensland University of Technology, Queensland, Australia; University of Cambridge, Cambridge, UK; Queensland University of Technology, Queensland, Australia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4306694273</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>2 Are we closer to international consensus on the term ‘food literacy’? A systematic scoping review of its use in the academic literature (1998–2019)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Abstracts</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmjnph-2022-summit2022.5</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/bmjnph-2022-summit2022.5</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1183,77 +1233,77 @@
           <t>Courtney Thompson</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://openalex.org/W4311952479</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>The development, validation and assessment of a food literacy questionnaire (IFLQ-19)</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.5204/thesis.eprints.237051</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.5204/thesis.eprints.237051</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>dissertation</t>
         </is>
@@ -1267,75 +1317,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; ; </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4313905698</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>International Food Literacy Questionnaire</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2022-01-01</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>PsycTESTS Dataset</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1037/t87068-000</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1037/t87068-000</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>dataset</t>
         </is>
@@ -1349,75 +1404,80 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.; University of Arizona, Tucson, AZ.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4316081040</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>S1530 Optimizing the GI Consult Process: Jointly Bridging the Gap</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2022-10-01</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>The American Journal of Gastroenterology</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000862760.32363.1f</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>https://doi.org/10.14309/01.ajg.0000862760.32363.1f</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
